--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Spring.030620.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Spring.030620.xlsx_with_dialog_acts.xlsx
@@ -3887,12 +3887,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4223,12 +4223,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4475,12 +4475,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4979,12 +4979,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5105,12 +5105,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5189,12 +5189,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5273,12 +5273,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5487,12 +5487,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7129,12 +7129,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7171,12 +7171,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7633,12 +7633,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7801,12 +7801,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7973,12 +7973,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8523,12 +8523,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9661,12 +9661,12 @@
       <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9749,12 +9749,12 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9791,12 +9791,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10127,12 +10127,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10463,12 +10463,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11055,12 +11055,12 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11097,12 +11097,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11349,12 +11349,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11853,12 +11853,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12777,12 +12777,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13491,12 +13491,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13617,12 +13617,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13789,12 +13789,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14045,12 +14045,12 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14801,12 +14801,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15725,12 +15725,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16103,12 +16103,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16145,12 +16145,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17657,12 +17657,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18119,12 +18119,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18161,12 +18161,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18371,12 +18371,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18791,12 +18791,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18833,12 +18833,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18917,12 +18917,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18959,12 +18959,12 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19757,12 +19757,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20563,12 +20563,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20689,12 +20689,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21361,12 +21361,12 @@
       <c r="H497" t="inlineStr"/>
       <c r="I497" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21655,12 +21655,12 @@
       </c>
       <c r="I504" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J504" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21907,12 +21907,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23675,12 +23675,12 @@
       </c>
       <c r="I552" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23969,12 +23969,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24011,12 +24011,12 @@
       </c>
       <c r="I560" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24137,12 +24137,12 @@
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24809,12 +24809,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
